--- a/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/法人资本金.xlsx
+++ b/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/法人资本金.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,381 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>101.18945</v>
-      </c>
-      <c r="C2" t="n">
-        <v>487.59581</v>
-      </c>
-      <c r="D2" t="n">
-        <v>37.59979</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>5.54867</v>
-      </c>
-      <c r="G2" t="n">
-        <v>264.91995</v>
-      </c>
-      <c r="H2" t="n">
-        <v>63.67961</v>
-      </c>
-      <c r="I2" t="n">
-        <v>106.6618</v>
-      </c>
-      <c r="J2" t="n">
-        <v>26.00687</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4890.77068</v>
-      </c>
-      <c r="L2" t="n">
-        <v>30.86432</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3.73598</v>
-      </c>
-      <c r="N2" t="n">
-        <v>6.19766</v>
-      </c>
-      <c r="O2" t="n">
-        <v>172.42111</v>
-      </c>
-      <c r="P2" t="n">
-        <v>176.49527</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>17.708</v>
-      </c>
-      <c r="R2" t="n">
-        <v>11.21896</v>
-      </c>
-      <c r="S2" t="n">
-        <v>16.60637</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.63641</v>
-      </c>
-      <c r="U2" t="n">
-        <v>17.51537</v>
-      </c>
-      <c r="V2" t="n">
-        <v>7.649</v>
-      </c>
-      <c r="W2" t="n">
-        <v>4.21554</v>
-      </c>
-      <c r="X2" t="n">
-        <v>65.64599</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1370.97652</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>224.72454</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>121.82312</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>4.84719</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>406.50517</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>212.17998</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>138.95771</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>40.19849</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>28.70893</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>31.04589</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>155.468</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>16.40136</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>35.30781</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>35.11136</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>43.0796</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>284.50749</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>2.02123</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>122.33913</v>
-      </c>
-      <c r="C3" t="n">
-        <v>763.11977</v>
-      </c>
-      <c r="D3" t="n">
-        <v>46.34478</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>7.08195</v>
-      </c>
-      <c r="G3" t="n">
-        <v>536.2834</v>
-      </c>
-      <c r="H3" t="n">
-        <v>93.80457</v>
-      </c>
-      <c r="I3" t="n">
-        <v>119.65374</v>
-      </c>
-      <c r="J3" t="n">
-        <v>29.49144</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5959.6346</v>
-      </c>
-      <c r="L3" t="n">
-        <v>35.87512</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4.12093</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6.35703</v>
-      </c>
-      <c r="O3" t="n">
-        <v>194.81914</v>
-      </c>
-      <c r="P3" t="n">
-        <v>173.94441</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>16.70957</v>
-      </c>
-      <c r="R3" t="n">
-        <v>10.322</v>
-      </c>
-      <c r="S3" t="n">
-        <v>19.57312</v>
-      </c>
-      <c r="T3" t="n">
-        <v>5.66293</v>
-      </c>
-      <c r="U3" t="n">
-        <v>25.98926</v>
-      </c>
-      <c r="V3" t="n">
-        <v>11.36915</v>
-      </c>
-      <c r="W3" t="n">
-        <v>14.97439</v>
-      </c>
-      <c r="X3" t="n">
-        <v>150.88436</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1411.47155</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>283.29603</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>122.32573</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>4.25422</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>456.72014</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>197.76836</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>118.55696</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>66.39729</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>32.3591</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>42.37813</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>188.17326</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>15.612</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>40.23051</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>48.32299</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>58.76256</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>355.20941</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>3.85638</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>129.45707</v>
-      </c>
-      <c r="C4" t="n">
-        <v>745.95397</v>
-      </c>
-      <c r="D4" t="n">
-        <v>45.54352</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>6.33054</v>
-      </c>
-      <c r="G4" t="n">
-        <v>690.31083</v>
-      </c>
-      <c r="H4" t="n">
-        <v>90.30183</v>
-      </c>
-      <c r="I4" t="n">
-        <v>159.25395</v>
-      </c>
-      <c r="J4" t="n">
-        <v>36.44062</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7188.82334</v>
-      </c>
-      <c r="L4" t="n">
-        <v>31.9989</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5.60338</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7.13092</v>
-      </c>
-      <c r="O4" t="n">
-        <v>210.53536</v>
-      </c>
-      <c r="P4" t="n">
-        <v>144.78263</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>21.22399</v>
-      </c>
-      <c r="R4" t="n">
-        <v>13.86561</v>
-      </c>
-      <c r="S4" t="n">
-        <v>19.29124</v>
-      </c>
-      <c r="T4" t="n">
-        <v>8.186199999999999</v>
-      </c>
-      <c r="U4" t="n">
-        <v>37.53853</v>
-      </c>
-      <c r="V4" t="n">
-        <v>11.00133</v>
-      </c>
-      <c r="W4" t="n">
-        <v>22.39383</v>
-      </c>
-      <c r="X4" t="n">
-        <v>233.17233</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1653.54956</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>318.85178</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>129.47069</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>5.54788</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>437.67998</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>800.6171000000001</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>122.22927</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>25.43159</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>34.25252</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>36.38947</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>198.12599</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>34.8938</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>43.26515</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>51.53327</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>68.11631</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>421.48077</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>12.80504</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
